--- a/data/trans_dic/P55_2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P55_2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -50,6 +51,27 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,12 +514,15 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no puede permitirse una comida de carne, pollo o pescado al menos cada dos días</t>
+          <t>Población que no puede permitirse una comida de carne, pollo o pescado al menos cada dos días (tasa de respuesta: 99,54%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -506,16 +531,19 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -527,12 +555,27 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -542,6 +585,9 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -556,17 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>96,11%</t>
+          <t>91,8%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>97,78%</t>
+          <t>92,6%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>96,85%</t>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>98,04%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>95,77%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>95,43%</t>
         </is>
       </c>
     </row>
@@ -579,17 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>89,46; 99,05</t>
+          <t>77,39; 97,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>92,82; 100,0</t>
+          <t>74,37; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>92,68; 98,98</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>89,5; 100,0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>88,94; 98,86</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>85,83; 98,97</t>
         </is>
       </c>
     </row>
@@ -606,17 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>98,82%</t>
+          <t>98,21%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>94,53%</t>
+          <t>96,88%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>96,75%</t>
+          <t>96,54%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>92,09%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>97,45%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>94,89%</t>
         </is>
       </c>
     </row>
@@ -629,17 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>94,3; 100,0</t>
+          <t>91,54; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>87,47; 98,17</t>
+          <t>87,91; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>93,33; 98,6</t>
+          <t>88,92; 100,0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>82,1; 97,87</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>92,41; 99,28</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>88,24; 98,26</t>
         </is>
       </c>
     </row>
@@ -656,17 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>98,13%</t>
+          <t>96,09%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>99,21%</t>
+          <t>94,79%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>98,68%</t>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>97,33%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>98,42%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>96,23%</t>
         </is>
       </c>
     </row>
@@ -679,17 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>93,78; 100,0</t>
+          <t>87,82; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>95,5; 100,0</t>
+          <t>86,73; 98,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>96,38; 99,6</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>90,98; 100,0</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>94,6; 100,0</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>91,71; 98,6</t>
         </is>
       </c>
     </row>
@@ -706,17 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>98,59%</t>
+          <t>98,73%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>95,36%</t>
+          <t>97,52%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>96,87%</t>
+          <t>95,81%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>99,07%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>97,21%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>98,32%</t>
         </is>
       </c>
     </row>
@@ -729,17 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>95,64; 100,0</t>
+          <t>93,13; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>91,43; 97,88</t>
+          <t>92,25; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>94,2; 98,35</t>
+          <t>89,49; 98,97</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>93,41; 100,0</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>93,97; 98,99</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>95,18; 99,53</t>
         </is>
       </c>
     </row>
@@ -756,17 +922,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>93,04%</t>
+          <t>93,68%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>94,36%</t>
+          <t>97,12%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>93,67%</t>
+          <t>93,27%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>88,0%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>93,51%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>92,84%</t>
         </is>
       </c>
     </row>
@@ -779,17 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>86,82; 96,91</t>
+          <t>85,41; 98,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>87,66; 98,0</t>
+          <t>90,42; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>89,31; 96,44</t>
+          <t>81,27; 98,11</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>74,74; 95,58</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>87,79; 97,33</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>86,3; 96,79</t>
         </is>
       </c>
     </row>
@@ -806,17 +1002,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>98,85%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>92,86%</t>
+          <t>97,34%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>95,25%</t>
+          <t>98,07%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>78,53%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>98,94%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>86,11%</t>
         </is>
       </c>
     </row>
@@ -829,17 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>95,3; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>78,07; 98,34</t>
+          <t>87,41; 100,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>85,45; 98,35</t>
+          <t>90,35; 100,0</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>48,91; 93,13</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>93,54; 100,0</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>63,27; 95,17</t>
         </is>
       </c>
     </row>
@@ -856,17 +1082,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>97,3%</t>
+          <t>96,39%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>95,8%</t>
+          <t>96,18%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>96,54%</t>
+          <t>97,58%</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>92,33%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>97,0%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>94,2%</t>
         </is>
       </c>
     </row>
@@ -879,25 +1120,50 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>95,72; 98,55</t>
+          <t>93,57; 98,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>92,77; 97,23</t>
+          <t>93,44; 98,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>95,18; 97,55</t>
+          <t>95,74; 98,77</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>83,79; 95,57</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>95,49; 98,11</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>90,32; 96,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
@@ -906,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no puede permitirse una comida de carne, pollo o pescado al menos cada dos días (tasa de respuesta: 99,54%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>117102</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>124188</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>119829</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>142648</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>236931</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>266835</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>98718; 124734</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>99745; 134114</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>130225; 145497</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>220023; 244572</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>239995; 276733</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>148930</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>220595</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>121936</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>149523</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>270866</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>370118</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>138805; 151638</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>200175; 227693</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>112320; 126312</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>133309; 158915</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>256855; 275948</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>344194; 383298</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>130160</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>170860</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>198980</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>231170</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>329140</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>402031</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>118964; 135456</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>156344; 177809</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>216080; 237514</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>316379; 334436</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>383118; 411915</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>154223</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>196425</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>162130</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>210768</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>316353</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>407193</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>145482; 156211</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>185795; 201412</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>151425; 167476</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>198730; 212744</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>305815; 322123</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>394174; 412194</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>115408</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>150193</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>84474</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>120614</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>199882</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>270806</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>105216; 121232</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>139828; 154648</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>73599; 88849</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>102430; 131005</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>187668; 208056</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>251736; 282352</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>88222</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>134161</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>106332</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>160301</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>194554</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>294462</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>120481; 137831</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>97964; 108424</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>99843; 190104</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>183951; 196646</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>216343; 325453</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>297.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>297.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>383.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>378.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>680.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>675.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>754044</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>996423</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>793681</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1015024</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1547726</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>2011446</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>732016; 766650</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>967976; 1016993</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>778674; 803306</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>921162; 1050639</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1523563; 1565445</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1928650; 2056331</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>